--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-amount.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationratio-amount.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="111">
   <si>
     <t>Property</t>
   </si>
@@ -323,19 +323,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>strengthType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
-</t>
-  </si>
-  <si>
-    <t>力価区分</t>
-  </si>
-  <si>
-    <t>投与量が製剤単位か成分単位かを格納する</t>
   </si>
   <si>
     <t>Ratio.numerator</t>
@@ -674,7 +661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -684,7 +671,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="18.125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1150,11 +1137,9 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>101</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
@@ -1183,7 +1168,9 @@
       <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>74</v>
@@ -1232,30 +1219,30 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1278,16 +1265,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1337,7 +1324,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1349,118 +1336,13 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="L7" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
